--- a/output_xlsx/table2data_global_500m_winter.xlsx
+++ b/output_xlsx/table2data_global_500m_winter.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universityofexeteruk-my.sharepoint.com/personal/d_ford_exeter_ac_uk/Documents/Post_Doc_Covex_Seascape/Shutler_Cross_Shelf_Transport/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universityofexeteruk-my.sharepoint.com/personal/d_ford_exeter_ac_uk/Documents/Post_Doc_Covex_Seascape/Shutler_Cross_Shelf_Transport/SKIMSciSoc/output_xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{282B51F0-5D83-43A0-8B15-1A9F42813887}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0344EE43-864A-41D8-9338-3F4EA757100B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3ADAFFF4-F86A-4D2A-B123-BE435633EB80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{25C9299D-F59E-4014-8849-C2EFA2953FF5}"/>
+    <workbookView xWindow="-3924" yWindow="-17388" windowWidth="30936" windowHeight="16896" xr2:uid="{360E609B-FA55-416A-929B-2E2B83D51F28}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,151 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+  <si>
+    <t>region</t>
+  </si>
+  <si>
+    <t>total across-shelf</t>
+  </si>
+  <si>
+    <t>total across-shelf SD</t>
+  </si>
+  <si>
+    <t>total across-shelf_n</t>
+  </si>
+  <si>
+    <t>EksAbsolute</t>
+  </si>
+  <si>
+    <t>EksAbsoluteStd</t>
+  </si>
+  <si>
+    <t>EksAbsolute_n</t>
+  </si>
+  <si>
+    <t>GeoAbsolute</t>
+  </si>
+  <si>
+    <t>GeoAbsoluteStd</t>
+  </si>
+  <si>
+    <t>GeoAbsolute_n</t>
+  </si>
+  <si>
+    <t>StokesAbsolute</t>
+  </si>
+  <si>
+    <t>StokesAbsoluteStd</t>
+  </si>
+  <si>
+    <t>StokesAbsolute_n</t>
+  </si>
+  <si>
+    <t>proportionEks</t>
+  </si>
+  <si>
+    <t>proportionEksSD</t>
+  </si>
+  <si>
+    <t>proportionEks_n</t>
+  </si>
+  <si>
+    <t>proportionGeo</t>
+  </si>
+  <si>
+    <t>proportionGeoSD</t>
+  </si>
+  <si>
+    <t>proportionGeo_n</t>
+  </si>
+  <si>
+    <t>proportionStokes</t>
+  </si>
+  <si>
+    <t>proportionStokesSD</t>
+  </si>
+  <si>
+    <t>proportionStokes_n</t>
+  </si>
+  <si>
+    <t>percentEks</t>
+  </si>
+  <si>
+    <t>percentEksSD</t>
+  </si>
+  <si>
+    <t>percetnEks_n</t>
+  </si>
+  <si>
+    <t>percentGeo</t>
+  </si>
+  <si>
+    <t>percentGeoSD</t>
+  </si>
+  <si>
+    <t>percentGeo_n</t>
+  </si>
+  <si>
+    <t>percentStokes</t>
+  </si>
+  <si>
+    <t>percentStokesSD</t>
+  </si>
+  <si>
+    <t>percentStokes_n</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>kSD</t>
+  </si>
+  <si>
+    <t>k_n</t>
+  </si>
+  <si>
+    <t>North Sea (Jan-Mar)</t>
+  </si>
+  <si>
+    <t>English Channel (Jan-Mar)</t>
+  </si>
+  <si>
+    <t>Mid Atlantic Bight (Jan-Mar)</t>
+  </si>
+  <si>
+    <t>Coast of Japan (Jan-Mar)</t>
+  </si>
+  <si>
+    <t>Patagonian Shelf (Jul-Sep)</t>
+  </si>
+  <si>
+    <t>Bering Sea (Jan-Mar)</t>
+  </si>
+  <si>
+    <t>Antarctic Peninsula (Jul-Sep)</t>
+  </si>
+  <si>
+    <t>Labrador Sea (Jan-Mar)</t>
+  </si>
+  <si>
+    <t>Tasmanian Shelf (Jul-Sep)</t>
+  </si>
+  <si>
+    <t>Barents Sea (Jan-Mar)</t>
+  </si>
+  <si>
+    <t>South Atlantic Bight (Jan-Mar)</t>
+  </si>
+  <si>
+    <t>Southern Greenland (Jan-Mar)</t>
+  </si>
+  <si>
+    <t>Cascadian Shelf (Jan-Mar)</t>
+  </si>
+  <si>
+    <t>Irminger Sea (Jan-Mar)</t>
+  </si>
   <si>
     <t>dpCO2 trend smalls shelf mean</t>
   </si>
@@ -44,141 +188,27 @@
     <t>dpCO2 trend small shelf std</t>
   </si>
   <si>
+    <t>dpCO2 trend small shelf_n</t>
+  </si>
+  <si>
     <t>dpCO2 trend wide shelf mean</t>
   </si>
   <si>
     <t>dpCO2 trend wide shelf std</t>
   </si>
   <si>
-    <t>region</t>
-  </si>
-  <si>
-    <t>total across-shelf</t>
-  </si>
-  <si>
-    <t>total across-shelf SD</t>
-  </si>
-  <si>
-    <t>EksAbsolute</t>
-  </si>
-  <si>
-    <t>EksAbsoluteStd</t>
-  </si>
-  <si>
-    <t>GeoAbsolute</t>
-  </si>
-  <si>
-    <t>GeoAbsoluteStd</t>
-  </si>
-  <si>
-    <t>StokesAbsolute</t>
-  </si>
-  <si>
-    <t>StokesAbsoluteStd</t>
-  </si>
-  <si>
-    <t>proportionEks</t>
-  </si>
-  <si>
-    <t>proportionEksSD</t>
-  </si>
-  <si>
-    <t>proportionGeo</t>
-  </si>
-  <si>
-    <t>proportionGeoSD</t>
-  </si>
-  <si>
-    <t>proportionStokes</t>
-  </si>
-  <si>
-    <t>proportionStokesSD</t>
-  </si>
-  <si>
-    <t>percentEks</t>
-  </si>
-  <si>
-    <t>percentEksSD</t>
-  </si>
-  <si>
-    <t>percentGeo</t>
-  </si>
-  <si>
-    <t>percentGeoSD</t>
-  </si>
-  <si>
-    <t>percentStokes</t>
-  </si>
-  <si>
-    <t>percentStokesSD</t>
-  </si>
-  <si>
-    <t>k</t>
-  </si>
-  <si>
-    <t>kSD</t>
-  </si>
-  <si>
-    <t>k_ms-1_10-5</t>
-  </si>
-  <si>
-    <t>k_ms-1_10-5_SD</t>
-  </si>
-  <si>
-    <t>North Sea (Jan-Mar)</t>
-  </si>
-  <si>
-    <t>English Channel (Jan-Mar)</t>
-  </si>
-  <si>
-    <t>Mid Atlantic Bight (Jan-Mar)</t>
-  </si>
-  <si>
-    <t>Coast of Japan (Jan-Mar)</t>
-  </si>
-  <si>
-    <t>Patagonian Shelf (Jul-Sep)</t>
-  </si>
-  <si>
-    <t>Bering Sea (Jan-Mar)</t>
-  </si>
-  <si>
-    <t>Antarctic Peninsula (Jul-Sep)</t>
-  </si>
-  <si>
-    <t>Labrador Sea (Jan-Mar)</t>
-  </si>
-  <si>
-    <t>Tasmanian Shelf (Jul-Sep)</t>
-  </si>
-  <si>
-    <t>Barents Sea (Jan-Mar)</t>
-  </si>
-  <si>
-    <t>South Atlantic Bight (Jan-Mar)</t>
-  </si>
-  <si>
-    <t>Southern Greenland (Jan-Mar)</t>
-  </si>
-  <si>
-    <t>Cascadian Shelf (Jan-Mar)</t>
-  </si>
-  <si>
-    <t>Irminger Sea (Jan-Mar)</t>
+    <t>dpCO2 trend wide shelf_n</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.000000"/>
-  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -203,9 +233,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -235,39 +264,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -319,7 +348,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -430,13 +459,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -445,6 +467,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -509,119 +538,169 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38A4F4E7-E776-4488-A3F8-802879BCE75B}">
-  <dimension ref="A1:AC15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2FAC039-0C0A-40DC-8B19-CE293C7E68D4}">
+  <dimension ref="A1:AN15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T23" sqref="T23"/>
+      <selection sqref="A1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="5" max="5" width="25.77734375" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="H1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="I1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="J1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="K1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="L1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="M1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="N1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="O1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="P1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="Q1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="R1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="S1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="T1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="U1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="V1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="W1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="X1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="Y1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="Z1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="AA1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="AB1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="AC1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AD1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AE1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AF1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AG1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AH1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AI1" t="s">
         <v>28</v>
       </c>
+      <c r="AJ1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1.86</v>
       </c>
@@ -629,88 +708,121 @@
         <v>1.55</v>
       </c>
       <c r="C2">
+        <v>169</v>
+      </c>
+      <c r="D2">
         <v>1.81</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>1.37</v>
       </c>
-      <c r="E2" t="s">
-        <v>29</v>
-      </c>
       <c r="F2">
-        <v>0.155540666210886</v>
-      </c>
-      <c r="G2">
-        <v>0.12256165205245</v>
+        <v>186</v>
+      </c>
+      <c r="G2" t="s">
+        <v>34</v>
       </c>
       <c r="H2">
-        <v>3.4185575162797903E-2</v>
+        <v>0.18171783945998399</v>
       </c>
       <c r="I2">
-        <v>4.6717257775974103E-2</v>
+        <v>0.101153129505006</v>
       </c>
       <c r="J2">
-        <v>0.11706102105281201</v>
+        <v>74</v>
       </c>
       <c r="K2">
-        <v>9.0777724235231796E-2</v>
+        <v>3.7859729538637601E-2</v>
       </c>
       <c r="L2">
+        <v>3.06117879907358E-2</v>
+      </c>
+      <c r="M2">
+        <v>74</v>
+      </c>
+      <c r="N2">
+        <v>0.13956403992607</v>
+      </c>
+      <c r="O2">
+        <v>8.0077077857412596E-2</v>
+      </c>
+      <c r="P2">
+        <v>74</v>
+      </c>
+      <c r="Q2">
         <v>4.2940699952761204E-3</v>
       </c>
-      <c r="M2">
-        <v>2.20917320505877E-2</v>
-      </c>
-      <c r="N2">
-        <v>0.27333920528086397</v>
-      </c>
-      <c r="O2">
-        <v>0.178179229936866</v>
-      </c>
-      <c r="P2">
-        <v>0.69367617356071698</v>
-      </c>
-      <c r="Q2">
-        <v>0.191743334941674</v>
-      </c>
       <c r="R2">
-        <v>3.2984621158418499E-2</v>
+        <v>4.8332973896648996E-3</v>
       </c>
       <c r="S2">
-        <v>9.2448952907185203E-2</v>
+        <v>74</v>
       </c>
       <c r="T2">
-        <v>81.337105329158206</v>
+        <v>0.25566954812391202</v>
       </c>
       <c r="U2">
-        <v>2748.4763022011498</v>
+        <v>7.5596194552940699E-2</v>
       </c>
       <c r="V2">
-        <v>13.8139646606244</v>
+        <v>74</v>
       </c>
       <c r="W2">
-        <v>2755.7566705250401</v>
+        <v>0.71275325070417195</v>
       </c>
       <c r="X2">
-        <v>4.8489300102173001</v>
+        <v>8.8059359203990897E-2</v>
       </c>
       <c r="Y2">
-        <v>126.447794855753</v>
+        <v>74</v>
       </c>
       <c r="Z2">
+        <v>3.1577201171914503E-2</v>
+      </c>
+      <c r="AA2">
+        <v>1.8107767085009E-2</v>
+      </c>
+      <c r="AB2">
+        <v>74</v>
+      </c>
+      <c r="AC2">
+        <v>16.943894189567899</v>
+      </c>
+      <c r="AD2">
+        <v>47.710068246295897</v>
+      </c>
+      <c r="AE2">
+        <v>74</v>
+      </c>
+      <c r="AF2">
+        <v>80.8357002978602</v>
+      </c>
+      <c r="AG2">
+        <v>54.431413448839102</v>
+      </c>
+      <c r="AH2">
+        <v>74</v>
+      </c>
+      <c r="AI2">
+        <v>2.2204055125717499</v>
+      </c>
+      <c r="AJ2">
+        <v>6.93701520932263</v>
+      </c>
+      <c r="AK2">
+        <v>74</v>
+      </c>
+      <c r="AL2">
         <v>35.468793812887903</v>
       </c>
-      <c r="AA2">
-        <v>27.826146749460101</v>
-      </c>
-      <c r="AB2" s="1">
-        <v>9.8524427258021934</v>
-      </c>
-      <c r="AC2" s="1">
-        <v>7.7294852081833607</v>
+      <c r="AM2">
+        <v>2.1110280949900599</v>
+      </c>
+      <c r="AN2">
+        <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0</v>
       </c>
@@ -718,88 +830,121 @@
         <v>0.43</v>
       </c>
       <c r="C3">
+        <v>86</v>
+      </c>
+      <c r="D3">
         <v>-0.03</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>0.39</v>
       </c>
-      <c r="E3" t="s">
-        <v>30</v>
-      </c>
       <c r="F3">
-        <v>-1.3257143452303E-2</v>
-      </c>
-      <c r="G3">
-        <v>4.6213464496264602E-2</v>
+        <v>89</v>
+      </c>
+      <c r="G3" t="s">
+        <v>35</v>
       </c>
       <c r="H3">
-        <v>-1.4711220750807301E-2</v>
+        <v>-1.75894669467677E-2</v>
       </c>
       <c r="I3">
-        <v>2.7640100168054401E-2</v>
+        <v>1.11650239440874E-2</v>
       </c>
       <c r="J3">
-        <v>-2.3927049731280899E-4</v>
+        <v>50</v>
       </c>
       <c r="K3">
-        <v>2.9267934945178799E-2</v>
+        <v>-1.38424352322836E-2</v>
       </c>
       <c r="L3">
+        <v>4.0470414564256598E-3</v>
+      </c>
+      <c r="M3">
+        <v>50</v>
+      </c>
+      <c r="N3">
+        <v>-5.4403795103013502E-3</v>
+      </c>
+      <c r="O3">
+        <v>1.28087617626838E-2</v>
+      </c>
+      <c r="P3">
+        <v>50</v>
+      </c>
+      <c r="Q3">
         <v>1.6933477958171799E-3</v>
       </c>
-      <c r="M3">
-        <v>9.2055897782963407E-3</v>
-      </c>
-      <c r="N3">
-        <v>0.48402276791891202</v>
-      </c>
-      <c r="O3">
-        <v>0.25617836142349498</v>
-      </c>
-      <c r="P3">
-        <v>0.47677888788078598</v>
-      </c>
-      <c r="Q3">
-        <v>0.252767297927743</v>
-      </c>
       <c r="R3">
-        <v>3.9198344200300501E-2</v>
+        <v>9.2258234532266003E-4</v>
       </c>
       <c r="S3">
-        <v>0.12735747857138999</v>
+        <v>50</v>
       </c>
       <c r="T3">
-        <v>38.388483920418501</v>
+        <v>0.60500044517666696</v>
       </c>
       <c r="U3">
-        <v>5580.48990262795</v>
+        <v>0.20778398767101799</v>
       </c>
       <c r="V3">
-        <v>56.265905629937002</v>
+        <v>50</v>
       </c>
       <c r="W3">
-        <v>5577.9985914948602</v>
+        <v>0.32364056363865601</v>
       </c>
       <c r="X3">
-        <v>5.3456104496443704</v>
+        <v>0.21181068006141399</v>
       </c>
       <c r="Y3">
-        <v>169.96580164438501</v>
+        <v>50</v>
       </c>
       <c r="Z3">
+        <v>7.1358991184676202E-2</v>
+      </c>
+      <c r="AA3">
+        <v>4.2387071243994497E-2</v>
+      </c>
+      <c r="AB3">
+        <v>50</v>
+      </c>
+      <c r="AC3">
+        <v>123.862955402887</v>
+      </c>
+      <c r="AD3">
+        <v>100.766988439088</v>
+      </c>
+      <c r="AE3">
+        <v>50</v>
+      </c>
+      <c r="AF3">
+        <v>-7.87727593705117</v>
+      </c>
+      <c r="AG3">
+        <v>85.955797231716303</v>
+      </c>
+      <c r="AH3">
+        <v>50</v>
+      </c>
+      <c r="AI3">
+        <v>-15.985679465836</v>
+      </c>
+      <c r="AJ3">
+        <v>18.015501895924402</v>
+      </c>
+      <c r="AK3">
+        <v>50</v>
+      </c>
+      <c r="AL3">
         <v>28.681171077243</v>
       </c>
-      <c r="AA3">
-        <v>20.214592588330099</v>
-      </c>
-      <c r="AB3" s="1">
-        <v>7.9669919659008333</v>
-      </c>
-      <c r="AC3" s="1">
-        <v>5.6151646078694721</v>
+      <c r="AM3">
+        <v>2.2893998743756101</v>
+      </c>
+      <c r="AN3">
+        <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1.93</v>
       </c>
@@ -807,88 +952,121 @@
         <v>3.11</v>
       </c>
       <c r="C4">
+        <v>76</v>
+      </c>
+      <c r="D4">
         <v>1.92</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>3.19</v>
       </c>
-      <c r="E4" t="s">
-        <v>31</v>
-      </c>
       <c r="F4">
-        <v>-9.69538274636388E-2</v>
-      </c>
-      <c r="G4">
-        <v>0.29141579015416802</v>
+        <v>78</v>
+      </c>
+      <c r="G4" t="s">
+        <v>36</v>
       </c>
       <c r="H4">
-        <v>-3.6897862405788497E-2</v>
+        <v>-4.4224057754831798E-2</v>
       </c>
       <c r="I4">
-        <v>2.8343317515122798E-2</v>
+        <v>0.17335522813422</v>
       </c>
       <c r="J4">
-        <v>-6.0033326395736199E-2</v>
+        <v>60</v>
       </c>
       <c r="K4">
-        <v>0.28429462335087702</v>
-      </c>
-      <c r="L4" s="2">
+        <v>-3.3449485513216602E-2</v>
+      </c>
+      <c r="L4">
+        <v>1.42229043302315E-2</v>
+      </c>
+      <c r="M4">
+        <v>60</v>
+      </c>
+      <c r="N4">
+        <v>-1.07519335795011E-2</v>
+      </c>
+      <c r="O4">
+        <v>0.169556056219933</v>
+      </c>
+      <c r="P4">
+        <v>60</v>
+      </c>
+      <c r="Q4" s="1">
         <v>-2.2638662114094599E-5</v>
       </c>
-      <c r="M4">
-        <v>4.1567695104007003E-3</v>
-      </c>
-      <c r="N4">
-        <v>0.31239581645375702</v>
-      </c>
-      <c r="O4">
-        <v>0.24279442186923</v>
-      </c>
-      <c r="P4">
-        <v>0.68172050417438501</v>
-      </c>
-      <c r="Q4">
-        <v>0.24477743195656901</v>
-      </c>
       <c r="R4">
-        <v>5.8836793718576204E-3</v>
+        <v>3.02257333029329E-4</v>
       </c>
       <c r="S4">
-        <v>3.1058109724953601E-2</v>
+        <v>60</v>
       </c>
       <c r="T4">
-        <v>43.920840507618301</v>
+        <v>0.27709889724667802</v>
       </c>
       <c r="U4">
-        <v>3588.33166424518</v>
+        <v>0.16339410095821999</v>
       </c>
       <c r="V4">
-        <v>55.858312491051599</v>
+        <v>60</v>
       </c>
       <c r="W4">
-        <v>3590.8379112094499</v>
+        <v>0.72056343980714199</v>
       </c>
       <c r="X4">
-        <v>0.22084700133004301</v>
+        <v>0.16361701061383499</v>
       </c>
       <c r="Y4">
-        <v>48.426398156968602</v>
+        <v>60</v>
       </c>
       <c r="Z4">
+        <v>2.3376629461797E-3</v>
+      </c>
+      <c r="AA4">
+        <v>3.23259642406142E-3</v>
+      </c>
+      <c r="AB4">
+        <v>60</v>
+      </c>
+      <c r="AC4">
+        <v>-436.20898966224001</v>
+      </c>
+      <c r="AD4">
+        <v>2263.48490550222</v>
+      </c>
+      <c r="AE4">
+        <v>60</v>
+      </c>
+      <c r="AF4">
+        <v>536.26425789859604</v>
+      </c>
+      <c r="AG4">
+        <v>2263.4824094270698</v>
+      </c>
+      <c r="AH4">
+        <v>60</v>
+      </c>
+      <c r="AI4">
+        <v>-5.5268236356018699E-2</v>
+      </c>
+      <c r="AJ4">
+        <v>1.1663418406663599</v>
+      </c>
+      <c r="AK4">
+        <v>60</v>
+      </c>
+      <c r="AL4">
         <v>22.7048038543997</v>
       </c>
-      <c r="AA4">
-        <v>16.887278977731601</v>
-      </c>
-      <c r="AB4" s="1">
-        <v>6.3068899595554715</v>
-      </c>
-      <c r="AC4" s="1">
-        <v>4.6909108271476674</v>
+      <c r="AM4">
+        <v>3.7640902777467802</v>
+      </c>
+      <c r="AN4">
+        <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0.77</v>
       </c>
@@ -896,88 +1074,121 @@
         <v>0.69</v>
       </c>
       <c r="C5">
+        <v>56</v>
+      </c>
+      <c r="D5">
         <v>0.22</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>0.7</v>
       </c>
-      <c r="E5" t="s">
-        <v>32</v>
-      </c>
       <c r="F5">
-        <v>-2.6506939894775199E-3</v>
-      </c>
-      <c r="G5">
-        <v>0.176460178260263</v>
+        <v>175</v>
+      </c>
+      <c r="G5" t="s">
+        <v>37</v>
       </c>
       <c r="H5">
-        <v>-7.9816582125761797E-3</v>
+        <v>1.54109759626331E-2</v>
       </c>
       <c r="I5">
-        <v>5.3907463564872998E-2</v>
+        <v>0.12628543555883401</v>
       </c>
       <c r="J5">
-        <v>5.3808089300590202E-3</v>
+        <v>312</v>
       </c>
       <c r="K5">
-        <v>0.15842934305534701</v>
-      </c>
-      <c r="L5" s="2">
-        <v>-4.9844706960363798E-5</v>
+        <v>-4.0802587084722101E-4</v>
+      </c>
+      <c r="L5">
+        <v>4.9130603684823297E-2</v>
       </c>
       <c r="M5">
-        <v>7.2701221216108104E-3</v>
+        <v>312</v>
       </c>
       <c r="N5">
-        <v>0.37967911103188601</v>
+        <v>1.5725817252105399E-2</v>
       </c>
       <c r="O5">
-        <v>0.27423112414213802</v>
+        <v>0.109733207243135</v>
       </c>
       <c r="P5">
-        <v>0.61499785599530299</v>
-      </c>
-      <c r="Q5">
-        <v>0.27576133821579701</v>
+        <v>312</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>9.3184581374915502E-5</v>
       </c>
       <c r="R5">
-        <v>5.3230329728095197E-3</v>
+        <v>1.81370966135116E-3</v>
       </c>
       <c r="S5">
-        <v>4.3540248174129902E-2</v>
+        <v>312</v>
       </c>
       <c r="T5">
-        <v>36.8087307446892</v>
+        <v>0.36869786814107902</v>
       </c>
       <c r="U5">
-        <v>4679.4774146223599</v>
+        <v>0.28178573866246598</v>
       </c>
       <c r="V5">
-        <v>63.271570880445502</v>
+        <v>312</v>
       </c>
       <c r="W5">
-        <v>4680.0441991011303</v>
+        <v>0.62060867681663201</v>
       </c>
       <c r="X5">
-        <v>-8.0301625134803906E-2</v>
+        <v>0.28369726730739803</v>
       </c>
       <c r="Y5">
-        <v>52.965350638236501</v>
+        <v>312</v>
       </c>
       <c r="Z5">
-        <v>21.010472140546302</v>
+        <v>1.0693455042287799E-2</v>
       </c>
       <c r="AA5">
-        <v>17.609048647100298</v>
-      </c>
-      <c r="AB5" s="1">
-        <v>5.8362422612628615</v>
-      </c>
-      <c r="AC5" s="1">
-        <v>4.8914024019723055</v>
+        <v>2.3808626794431902E-2</v>
+      </c>
+      <c r="AB5">
+        <v>312</v>
+      </c>
+      <c r="AC5">
+        <v>-9.1785186945771091</v>
+      </c>
+      <c r="AD5">
+        <v>756.44170973871201</v>
+      </c>
+      <c r="AE5">
+        <v>312</v>
+      </c>
+      <c r="AF5">
+        <v>122.662510122249</v>
+      </c>
+      <c r="AG5">
+        <v>927.11631152130406</v>
+      </c>
+      <c r="AH5">
+        <v>312</v>
+      </c>
+      <c r="AI5">
+        <v>-13.483991427672599</v>
+      </c>
+      <c r="AJ5">
+        <v>178.67580155119501</v>
+      </c>
+      <c r="AK5">
+        <v>312</v>
+      </c>
+      <c r="AL5">
+        <v>20.968730703212099</v>
+      </c>
+      <c r="AM5">
+        <v>6.81138342339709</v>
+      </c>
+      <c r="AN5">
+        <v>311</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>-0.2</v>
       </c>
@@ -985,88 +1196,121 @@
         <v>0.38</v>
       </c>
       <c r="C6">
+        <v>27</v>
+      </c>
+      <c r="D6">
         <v>-0.11</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>0.35</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6">
         <v>33</v>
       </c>
-      <c r="F6">
-        <v>-0.143766753595893</v>
-      </c>
-      <c r="G6">
-        <v>0.173343153179851</v>
+      <c r="G6" t="s">
+        <v>38</v>
       </c>
       <c r="H6">
-        <v>2.7821930766175101E-2</v>
+        <v>-0.23012252392779001</v>
       </c>
       <c r="I6">
-        <v>3.5314644213924197E-2</v>
+        <v>0.20995413242775501</v>
       </c>
       <c r="J6">
-        <v>-0.17013395197474901</v>
+        <v>25</v>
       </c>
       <c r="K6">
-        <v>0.15035107014152899</v>
+        <v>2.48453302383255E-2</v>
       </c>
       <c r="L6">
-        <v>-1.4547323873188799E-3</v>
+        <v>2.48204566118299E-2</v>
       </c>
       <c r="M6">
-        <v>1.24231647166036E-2</v>
+        <v>25</v>
       </c>
       <c r="N6">
-        <v>0.15472079876526501</v>
+        <v>-0.25356042290908398</v>
       </c>
       <c r="O6">
-        <v>0.14776786059632299</v>
+        <v>0.18693727411884101</v>
       </c>
       <c r="P6">
-        <v>0.83503860734030799</v>
+        <v>25</v>
       </c>
       <c r="Q6">
-        <v>0.153612243304215</v>
+        <v>-1.40743125703067E-3</v>
       </c>
       <c r="R6">
-        <v>1.0240593894425901E-2</v>
+        <v>2.9120736324297599E-3</v>
       </c>
       <c r="S6">
-        <v>4.3710119054907799E-2</v>
+        <v>25</v>
       </c>
       <c r="T6">
-        <v>-9.252106314992</v>
+        <v>9.7469644118956603E-2</v>
       </c>
       <c r="U6">
-        <v>166.59521535076499</v>
+        <v>9.9277875437472907E-2</v>
       </c>
       <c r="V6">
-        <v>108.06955716678701</v>
+        <v>25</v>
       </c>
       <c r="W6">
-        <v>166.595885787893</v>
+        <v>0.891876823958894</v>
       </c>
       <c r="X6">
-        <v>1.1825491482043999</v>
+        <v>0.104046232138287</v>
       </c>
       <c r="Y6">
-        <v>6.8195122535374999</v>
+        <v>25</v>
       </c>
       <c r="Z6">
+        <v>1.0653531922149399E-2</v>
+      </c>
+      <c r="AA6">
+        <v>1.08366509104509E-2</v>
+      </c>
+      <c r="AB6">
+        <v>25</v>
+      </c>
+      <c r="AC6">
+        <v>-6.4206138204935401</v>
+      </c>
+      <c r="AD6">
+        <v>18.301276304116701</v>
+      </c>
+      <c r="AE6">
+        <v>25</v>
+      </c>
+      <c r="AF6">
+        <v>105.133378295174</v>
+      </c>
+      <c r="AG6">
+        <v>18.315229015883599</v>
+      </c>
+      <c r="AH6">
+        <v>25</v>
+      </c>
+      <c r="AI6">
+        <v>1.2872355253186001</v>
+      </c>
+      <c r="AJ6">
+        <v>1.4098107336555199</v>
+      </c>
+      <c r="AK6">
+        <v>25</v>
+      </c>
+      <c r="AL6">
         <v>34.224650823584803</v>
       </c>
-      <c r="AA6">
-        <v>21.749023138201899</v>
-      </c>
-      <c r="AB6" s="1">
-        <v>9.5068474509957781</v>
-      </c>
-      <c r="AC6" s="1">
-        <v>6.0413953161671934</v>
+      <c r="AM6">
+        <v>4.4545963759144396</v>
+      </c>
+      <c r="AN6">
+        <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>-1.1100000000000001</v>
       </c>
@@ -1074,88 +1318,121 @@
         <v>0.74</v>
       </c>
       <c r="C7">
+        <v>24</v>
+      </c>
+      <c r="D7">
         <v>-1.44</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>0.94</v>
       </c>
-      <c r="E7" t="s">
-        <v>34</v>
-      </c>
       <c r="F7">
-        <v>4.9451292428566896E-4</v>
-      </c>
-      <c r="G7">
-        <v>8.0063655235562303E-2</v>
+        <v>43</v>
+      </c>
+      <c r="G7" t="s">
+        <v>39</v>
       </c>
       <c r="H7">
-        <v>4.8519000686194002E-3</v>
+        <v>4.0160585078246699E-2</v>
       </c>
       <c r="I7">
-        <v>3.2223682720721701E-2</v>
+        <v>8.9386386393747505E-2</v>
       </c>
       <c r="J7">
-        <v>-3.5981010815146499E-3</v>
+        <v>96</v>
       </c>
       <c r="K7">
-        <v>7.2823001924597605E-2</v>
+        <v>6.5843091301376697E-3</v>
       </c>
       <c r="L7">
-        <v>-7.5928606281907402E-4</v>
+        <v>1.20129931373549E-2</v>
       </c>
       <c r="M7">
-        <v>1.1522490016803E-2</v>
+        <v>96</v>
       </c>
       <c r="N7">
-        <v>0.34769443605914202</v>
+        <v>3.4288306619570698E-2</v>
       </c>
       <c r="O7">
-        <v>0.24674708851427499</v>
+        <v>9.6566015784640399E-2</v>
       </c>
       <c r="P7">
-        <v>0.61493380100988904</v>
+        <v>96</v>
       </c>
       <c r="Q7">
-        <v>0.25699783803017001</v>
+        <v>-7.1203067146163803E-4</v>
       </c>
       <c r="R7">
-        <v>3.7371762930967903E-2</v>
+        <v>2.3316831349139899E-3</v>
       </c>
       <c r="S7">
-        <v>0.10879906694717199</v>
+        <v>96</v>
       </c>
       <c r="T7">
-        <v>31.054708870963601</v>
+        <v>0.169516070806597</v>
       </c>
       <c r="U7">
-        <v>1967.9611306383499</v>
+        <v>0.18125597613271799</v>
       </c>
       <c r="V7">
-        <v>57.270643684790997</v>
+        <v>96</v>
       </c>
       <c r="W7">
-        <v>2328.2296115416402</v>
+        <v>0.79789568572936198</v>
       </c>
       <c r="X7">
-        <v>11.6746474442453</v>
+        <v>0.200515347556949</v>
       </c>
       <c r="Y7">
-        <v>677.41810557418796</v>
+        <v>96</v>
       </c>
       <c r="Z7">
-        <v>25.464592070090902</v>
+        <v>3.2588243464039698E-2</v>
       </c>
       <c r="AA7">
-        <v>18.866738820719299</v>
-      </c>
-      <c r="AB7" s="1">
-        <v>7.073497797247474</v>
-      </c>
-      <c r="AC7" s="1">
-        <v>5.2407607835331387</v>
+        <v>4.3345480491240998E-2</v>
+      </c>
+      <c r="AB7">
+        <v>96</v>
+      </c>
+      <c r="AC7">
+        <v>2.02273240117343</v>
+      </c>
+      <c r="AD7">
+        <v>106.69058446823701</v>
+      </c>
+      <c r="AE7">
+        <v>96</v>
+      </c>
+      <c r="AF7">
+        <v>108.86883160415699</v>
+      </c>
+      <c r="AG7">
+        <v>189.23697670915499</v>
+      </c>
+      <c r="AH7">
+        <v>96</v>
+      </c>
+      <c r="AI7">
+        <v>-10.891564005331</v>
+      </c>
+      <c r="AJ7">
+        <v>95.865032488772997</v>
+      </c>
+      <c r="AK7">
+        <v>96</v>
+      </c>
+      <c r="AL7">
+        <v>25.464592070090799</v>
+      </c>
+      <c r="AM7">
+        <v>3.0987570654403398</v>
+      </c>
+      <c r="AN7">
+        <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2.2799999999999998</v>
       </c>
@@ -1163,88 +1440,121 @@
         <v>1.24</v>
       </c>
       <c r="C8">
+        <v>22</v>
+      </c>
+      <c r="D8">
         <v>1.57</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>0.95</v>
       </c>
-      <c r="E8" t="s">
-        <v>35</v>
-      </c>
       <c r="F8">
-        <v>-2.5382249452567101E-3</v>
-      </c>
-      <c r="G8">
-        <v>5.9630723224548897E-2</v>
+        <v>50</v>
+      </c>
+      <c r="G8" t="s">
+        <v>40</v>
       </c>
       <c r="H8">
-        <v>-1.8008134995134199E-2</v>
+        <v>-1.9015037795595301E-4</v>
       </c>
       <c r="I8">
-        <v>2.46568302250991E-2</v>
+        <v>4.1112045524060802E-2</v>
       </c>
       <c r="J8">
-        <v>1.78908873730226E-2</v>
+        <v>80</v>
       </c>
       <c r="K8">
-        <v>5.4056826340859801E-2</v>
+        <v>-2.0419178200428399E-2</v>
       </c>
       <c r="L8">
-        <v>-2.4209773231450402E-3</v>
+        <v>5.2215370620885904E-3</v>
       </c>
       <c r="M8">
-        <v>1.12120878222582E-2</v>
+        <v>80</v>
       </c>
       <c r="N8">
-        <v>0.35289798134996198</v>
+        <v>2.2811115218702101E-2</v>
       </c>
       <c r="O8">
-        <v>0.23183810012452</v>
+        <v>4.0953909561630301E-2</v>
       </c>
       <c r="P8">
-        <v>0.62087994535073698</v>
+        <v>80</v>
       </c>
       <c r="Q8">
-        <v>0.24272743181195999</v>
+        <v>-2.5820873962296501E-3</v>
       </c>
       <c r="R8">
-        <v>2.6222073299299899E-2</v>
+        <v>1.5041197353649401E-3</v>
       </c>
       <c r="S8">
-        <v>0.101816526080153</v>
+        <v>80</v>
       </c>
       <c r="T8">
-        <v>-344.59722059138198</v>
+        <v>0.44958748952822303</v>
       </c>
       <c r="U8">
-        <v>16702.018674886302</v>
+        <v>0.234925241943266</v>
       </c>
       <c r="V8">
-        <v>441.30281722311003</v>
+        <v>80</v>
       </c>
       <c r="W8">
-        <v>16706.6265382276</v>
+        <v>0.50098386485093005</v>
       </c>
       <c r="X8">
-        <v>3.2944033682717699</v>
+        <v>0.25154860564305898</v>
       </c>
       <c r="Y8">
-        <v>185.01467624692501</v>
+        <v>80</v>
       </c>
       <c r="Z8">
-        <v>21.293183673133498</v>
+        <v>4.94286456208455E-2</v>
       </c>
       <c r="AA8">
-        <v>15.5942508482288</v>
-      </c>
-      <c r="AB8" s="1">
-        <v>5.9147732425370831</v>
-      </c>
-      <c r="AC8" s="1">
-        <v>4.3317363467302217</v>
+        <v>3.2115025962521103E-2</v>
+      </c>
+      <c r="AB8">
+        <v>80</v>
+      </c>
+      <c r="AC8">
+        <v>88.785074531808604</v>
+      </c>
+      <c r="AD8">
+        <v>449.03393564062202</v>
+      </c>
+      <c r="AE8">
+        <v>80</v>
+      </c>
+      <c r="AF8">
+        <v>-1.25759608449145</v>
+      </c>
+      <c r="AG8">
+        <v>532.10367678631803</v>
+      </c>
+      <c r="AH8">
+        <v>80</v>
+      </c>
+      <c r="AI8">
+        <v>12.4725215526827</v>
+      </c>
+      <c r="AJ8">
+        <v>84.519604222918602</v>
+      </c>
+      <c r="AK8">
+        <v>80</v>
+      </c>
+      <c r="AL8">
+        <v>21.340698795580199</v>
+      </c>
+      <c r="AM8">
+        <v>1.8553075264451999</v>
+      </c>
+      <c r="AN8">
+        <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>0.68</v>
       </c>
@@ -1252,88 +1562,121 @@
         <v>0.61</v>
       </c>
       <c r="C9">
+        <v>104</v>
+      </c>
+      <c r="D9">
         <v>0.71</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>0.67</v>
       </c>
-      <c r="E9" t="s">
-        <v>36</v>
-      </c>
       <c r="F9">
-        <v>3.3017641469448397E-2</v>
-      </c>
-      <c r="G9">
-        <v>0.18738066066870099</v>
+        <v>115</v>
+      </c>
+      <c r="G9" t="s">
+        <v>41</v>
       </c>
       <c r="H9">
-        <v>2.09735450616126E-2</v>
+        <v>2.1740521329999701E-3</v>
       </c>
       <c r="I9">
-        <v>4.4142696366200697E-2</v>
+        <v>0.141873305670357</v>
       </c>
       <c r="J9">
-        <v>7.3274488312379702E-3</v>
+        <v>130</v>
       </c>
       <c r="K9">
-        <v>0.18285042733120799</v>
+        <v>-2.2771016176304899E-2</v>
       </c>
       <c r="L9">
-        <v>4.71664757659778E-3</v>
+        <v>1.8014854456390401E-2</v>
       </c>
       <c r="M9">
-        <v>1.9462594958439099E-2</v>
+        <v>130</v>
       </c>
       <c r="N9">
-        <v>0.31092235162458698</v>
+        <v>2.7787366620114599E-2</v>
       </c>
       <c r="O9">
-        <v>0.279952280459075</v>
+        <v>0.15631710891573</v>
       </c>
       <c r="P9">
-        <v>0.66304926194259495</v>
+        <v>130</v>
       </c>
       <c r="Q9">
-        <v>0.28209951722265902</v>
+        <v>-2.8422983108096901E-3</v>
       </c>
       <c r="R9">
-        <v>2.6028386432817199E-2</v>
+        <v>2.5739895663261601E-3</v>
       </c>
       <c r="S9">
-        <v>8.51890777959914E-2</v>
+        <v>130</v>
       </c>
       <c r="T9">
-        <v>-425.67176660499098</v>
+        <v>0.20529856886044701</v>
       </c>
       <c r="U9">
-        <v>27646.630507648999</v>
+        <v>0.161104264354761</v>
       </c>
       <c r="V9">
-        <v>524.10825925930101</v>
+        <v>130</v>
       </c>
       <c r="W9">
-        <v>27646.941444490702</v>
+        <v>0.764954782285165</v>
       </c>
       <c r="X9">
-        <v>1.5635073456906301</v>
+        <v>0.18626994557858101</v>
       </c>
       <c r="Y9">
-        <v>96.228627485542901</v>
+        <v>130</v>
       </c>
       <c r="Z9">
-        <v>35.542025902661102</v>
+        <v>2.9746648854386801E-2</v>
       </c>
       <c r="AA9">
-        <v>34.840591413480297</v>
-      </c>
-      <c r="AB9" s="1">
-        <v>9.8727849729614157</v>
-      </c>
-      <c r="AC9" s="1">
-        <v>9.6779420593000829</v>
+        <v>3.81913138346942E-2</v>
+      </c>
+      <c r="AB9">
+        <v>130</v>
+      </c>
+      <c r="AC9">
+        <v>-164.26801328821901</v>
+      </c>
+      <c r="AD9">
+        <v>1483.9975360214601</v>
+      </c>
+      <c r="AE9">
+        <v>130</v>
+      </c>
+      <c r="AF9">
+        <v>285.01043536991199</v>
+      </c>
+      <c r="AG9">
+        <v>1652.13626017907</v>
+      </c>
+      <c r="AH9">
+        <v>130</v>
+      </c>
+      <c r="AI9">
+        <v>-20.742422081693501</v>
+      </c>
+      <c r="AJ9">
+        <v>168.90436531780301</v>
+      </c>
+      <c r="AK9">
+        <v>130</v>
+      </c>
+      <c r="AL9">
+        <v>33.560444368244802</v>
+      </c>
+      <c r="AM9">
+        <v>12.3765892988411</v>
+      </c>
+      <c r="AN9">
+        <v>130</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>0.11</v>
       </c>
@@ -1341,88 +1684,121 @@
         <v>0.12</v>
       </c>
       <c r="C10">
+        <v>16</v>
+      </c>
+      <c r="D10">
         <v>0.15</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>0.18</v>
       </c>
-      <c r="E10" t="s">
-        <v>37</v>
-      </c>
       <c r="F10">
-        <v>3.7847203087708899E-2</v>
-      </c>
-      <c r="G10">
-        <v>0.10381685761184301</v>
+        <v>25</v>
+      </c>
+      <c r="G10" t="s">
+        <v>42</v>
       </c>
       <c r="H10">
-        <v>2.2543344393030799E-2</v>
+        <v>4.9058263928935503E-2</v>
       </c>
       <c r="I10">
-        <v>4.9184097581118698E-2</v>
+        <v>0.110565582990755</v>
       </c>
       <c r="J10">
-        <v>1.0831268176705501E-2</v>
+        <v>65</v>
       </c>
       <c r="K10">
-        <v>6.67185746636033E-2</v>
+        <v>2.28537242043442E-2</v>
       </c>
       <c r="L10">
-        <v>4.4725905179725097E-3</v>
+        <v>4.2532612307206501E-2</v>
       </c>
       <c r="M10">
-        <v>2.2774136928257999E-2</v>
+        <v>65</v>
       </c>
       <c r="N10">
-        <v>0.46353223257403497</v>
+        <v>2.18166972750133E-2</v>
       </c>
       <c r="O10">
-        <v>0.254754680532088</v>
+        <v>7.0921432641745594E-2</v>
       </c>
       <c r="P10">
-        <v>0.48284955296204402</v>
+        <v>65</v>
       </c>
       <c r="Q10">
-        <v>0.24929439771033199</v>
+        <v>4.3878424495779698E-3</v>
       </c>
       <c r="R10">
-        <v>5.3618214463919699E-2</v>
+        <v>8.16676603290384E-3</v>
       </c>
       <c r="S10">
-        <v>0.139418004931644</v>
+        <v>65</v>
       </c>
       <c r="T10">
-        <v>61.946507024918802</v>
+        <v>0.42428145300813502</v>
       </c>
       <c r="U10">
-        <v>1367.6805716747899</v>
+        <v>0.21858841463642401</v>
       </c>
       <c r="V10">
-        <v>31.440001014685699</v>
+        <v>65</v>
       </c>
       <c r="W10">
-        <v>1370.1899364037499</v>
+        <v>0.51283487448096698</v>
       </c>
       <c r="X10">
-        <v>6.6134919603953701</v>
+        <v>0.20247013290604601</v>
       </c>
       <c r="Y10">
-        <v>77.725058720177799</v>
+        <v>65</v>
       </c>
       <c r="Z10">
+        <v>6.2883672510897104E-2</v>
+      </c>
+      <c r="AA10">
+        <v>4.34543913456737E-2</v>
+      </c>
+      <c r="AB10">
+        <v>65</v>
+      </c>
+      <c r="AC10">
+        <v>42.392028237808397</v>
+      </c>
+      <c r="AD10">
+        <v>51.276118998627403</v>
+      </c>
+      <c r="AE10">
+        <v>65</v>
+      </c>
+      <c r="AF10">
+        <v>51.233682668282</v>
+      </c>
+      <c r="AG10">
+        <v>47.420841498095903</v>
+      </c>
+      <c r="AH10">
+        <v>65</v>
+      </c>
+      <c r="AI10">
+        <v>6.3742890939094696</v>
+      </c>
+      <c r="AJ10">
+        <v>7.7373651532169196</v>
+      </c>
+      <c r="AK10">
+        <v>65</v>
+      </c>
+      <c r="AL10">
         <v>23.7698650969337</v>
       </c>
-      <c r="AA10">
-        <v>18.966780854861302</v>
-      </c>
-      <c r="AB10" s="1">
-        <v>6.602740304703806</v>
-      </c>
-      <c r="AC10" s="1">
-        <v>5.2685502374614721</v>
+      <c r="AM10">
+        <v>4.6814514894569204</v>
+      </c>
+      <c r="AN10">
+        <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>0.38</v>
       </c>
@@ -1430,88 +1806,121 @@
         <v>0.52</v>
       </c>
       <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11">
         <v>0.31</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>0.41</v>
       </c>
-      <c r="E11" t="s">
-        <v>38</v>
-      </c>
       <c r="F11">
-        <v>0.226381898382885</v>
-      </c>
-      <c r="G11">
-        <v>9.0266693709936299E-2</v>
+        <v>42</v>
+      </c>
+      <c r="G11" t="s">
+        <v>43</v>
       </c>
       <c r="H11">
-        <v>2.28509257803996E-2</v>
+        <v>0.26224609232917001</v>
       </c>
       <c r="I11">
-        <v>2.58949827476317E-2</v>
+        <v>8.0207809208779901E-2</v>
       </c>
       <c r="J11">
-        <v>0.19985825297200899</v>
+        <v>22</v>
       </c>
       <c r="K11">
-        <v>7.7753645259995105E-2</v>
+        <v>2.7401292424808502E-2</v>
       </c>
       <c r="L11">
+        <v>5.3837446188887096E-3</v>
+      </c>
+      <c r="M11">
+        <v>22</v>
+      </c>
+      <c r="N11">
+        <v>0.231172080273884</v>
+      </c>
+      <c r="O11">
+        <v>7.4899468427860105E-2</v>
+      </c>
+      <c r="P11">
+        <v>22</v>
+      </c>
+      <c r="Q11">
         <v>3.6727196304769901E-3</v>
       </c>
-      <c r="M11">
-        <v>1.58384161646371E-2</v>
-      </c>
-      <c r="N11">
-        <v>0.117986412643984</v>
-      </c>
-      <c r="O11">
-        <v>9.8443604540667903E-2</v>
-      </c>
-      <c r="P11">
-        <v>0.86046857990376902</v>
-      </c>
-      <c r="Q11">
-        <v>0.111086026522925</v>
-      </c>
       <c r="R11">
-        <v>2.15450074522456E-2</v>
+        <v>2.0241442049719199E-3</v>
       </c>
       <c r="S11">
-        <v>5.6276255467549302E-2</v>
+        <v>22</v>
       </c>
       <c r="T11">
-        <v>8.0344204827352801</v>
+        <v>0.111064030630427</v>
       </c>
       <c r="U11">
-        <v>33.278943079100799</v>
+        <v>2.4601951065640299E-2</v>
       </c>
       <c r="V11">
-        <v>95.192581634630898</v>
+        <v>22</v>
       </c>
       <c r="W11">
-        <v>167.39542881806599</v>
+        <v>0.87526861321882499</v>
       </c>
       <c r="X11">
-        <v>-3.22700211736624</v>
+        <v>2.3719195183921502E-2</v>
       </c>
       <c r="Y11">
-        <v>136.88578941125701</v>
+        <v>22</v>
       </c>
       <c r="Z11">
+        <v>1.36673561507467E-2</v>
+      </c>
+      <c r="AA11">
+        <v>6.8107827536506701E-3</v>
+      </c>
+      <c r="AB11">
+        <v>22</v>
+      </c>
+      <c r="AC11">
+        <v>11.1064030630427</v>
+      </c>
+      <c r="AD11">
+        <v>2.4601951065640302</v>
+      </c>
+      <c r="AE11">
+        <v>22</v>
+      </c>
+      <c r="AF11">
+        <v>87.526861321882606</v>
+      </c>
+      <c r="AG11">
+        <v>2.3719195183921502</v>
+      </c>
+      <c r="AH11">
+        <v>22</v>
+      </c>
+      <c r="AI11">
+        <v>1.3667356150746699</v>
+      </c>
+      <c r="AJ11">
+        <v>0.68107827536506704</v>
+      </c>
+      <c r="AK11">
+        <v>22</v>
+      </c>
+      <c r="AL11">
         <v>27.9794788766499</v>
       </c>
-      <c r="AA11">
-        <v>24.784928758576701</v>
-      </c>
-      <c r="AB11" s="1">
-        <v>7.7720774657360838</v>
-      </c>
-      <c r="AC11" s="1">
-        <v>6.8847024329379725</v>
+      <c r="AM11">
+        <v>1.7212103600664199</v>
+      </c>
+      <c r="AN11">
+        <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>0.51</v>
       </c>
@@ -1519,88 +1928,121 @@
         <v>0.74</v>
       </c>
       <c r="C12">
-        <v>0.7</v>
+        <v>18</v>
       </c>
       <c r="D12">
         <v>0.7</v>
       </c>
-      <c r="E12" t="s">
-        <v>39</v>
+      <c r="E12">
+        <v>0.7</v>
       </c>
       <c r="F12">
-        <v>-0.49999683584118298</v>
-      </c>
-      <c r="G12">
-        <v>0.56271137975986896</v>
+        <v>26</v>
+      </c>
+      <c r="G12" t="s">
+        <v>44</v>
       </c>
       <c r="H12">
-        <v>-1.6994497796227699E-2</v>
+        <v>-0.461736786465542</v>
       </c>
       <c r="I12">
-        <v>3.1575179678990602E-2</v>
+        <v>0.55071328738286696</v>
       </c>
       <c r="J12">
-        <v>-0.48313624122882698</v>
+        <v>49</v>
       </c>
       <c r="K12">
-        <v>0.55522641193336797</v>
+        <v>-1.4135763437818799E-2</v>
       </c>
       <c r="L12">
+        <v>2.1753275715440001E-2</v>
+      </c>
+      <c r="M12">
+        <v>49</v>
+      </c>
+      <c r="N12">
+        <v>-0.447734926211594</v>
+      </c>
+      <c r="O12">
+        <v>0.54272123881340695</v>
+      </c>
+      <c r="P12">
+        <v>49</v>
+      </c>
+      <c r="Q12">
         <v>1.3390318387109001E-4</v>
       </c>
-      <c r="M12">
-        <v>3.36953324108659E-3</v>
-      </c>
-      <c r="N12">
-        <v>0.109186354383889</v>
-      </c>
-      <c r="O12">
-        <v>0.151297143375691</v>
-      </c>
-      <c r="P12">
-        <v>0.89021169631512498</v>
-      </c>
-      <c r="Q12">
-        <v>0.15123121437523901</v>
-      </c>
       <c r="R12">
-        <v>6.0194930098553495E-4</v>
+        <v>1.9503268237152299E-4</v>
       </c>
       <c r="S12">
-        <v>4.6635784397409397E-3</v>
+        <v>49</v>
       </c>
       <c r="T12">
-        <v>9.3245978361744299</v>
+        <v>8.4363289247978396E-2</v>
       </c>
       <c r="U12">
-        <v>412.57842479242998</v>
+        <v>0.126509981762572</v>
       </c>
       <c r="V12">
-        <v>90.699834447403305</v>
+        <v>49</v>
       </c>
       <c r="W12">
-        <v>412.57938157948098</v>
+        <v>0.91543630184284097</v>
       </c>
       <c r="X12">
-        <v>-2.44322835777467E-2</v>
+        <v>0.12647551196227699</v>
       </c>
       <c r="Y12">
-        <v>0.52338726553423198</v>
+        <v>49</v>
       </c>
       <c r="Z12">
+        <v>2.0040890918001899E-4</v>
+      </c>
+      <c r="AA12">
+        <v>3.1658470485219898E-4</v>
+      </c>
+      <c r="AB12">
+        <v>49</v>
+      </c>
+      <c r="AC12">
+        <v>3.7642592156414398</v>
+      </c>
+      <c r="AD12">
+        <v>16.288364075874998</v>
+      </c>
+      <c r="AE12">
+        <v>49</v>
+      </c>
+      <c r="AF12">
+        <v>96.249393712251504</v>
+      </c>
+      <c r="AG12">
+        <v>16.285462994377301</v>
+      </c>
+      <c r="AH12">
+        <v>49</v>
+      </c>
+      <c r="AI12">
+        <v>-1.36529278929558E-2</v>
+      </c>
+      <c r="AJ12">
+        <v>3.5763133680589497E-2</v>
+      </c>
+      <c r="AK12">
+        <v>49</v>
+      </c>
+      <c r="AL12">
         <v>13.574938712655101</v>
       </c>
-      <c r="AA12">
-        <v>11.7578454539867</v>
-      </c>
-      <c r="AB12" s="1">
-        <v>3.7708163090708613</v>
-      </c>
-      <c r="AC12" s="1">
-        <v>3.266068181662972</v>
+      <c r="AM12">
+        <v>3.8348859612686201</v>
+      </c>
+      <c r="AN12">
+        <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1.95</v>
       </c>
@@ -1608,88 +2050,121 @@
         <v>1.22</v>
       </c>
       <c r="C13">
+        <v>20</v>
+      </c>
+      <c r="D13">
         <v>1.73</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>0.8</v>
       </c>
-      <c r="E13" t="s">
-        <v>40</v>
-      </c>
       <c r="F13">
-        <v>-0.14398810913793</v>
-      </c>
-      <c r="G13">
-        <v>0.111698398523266</v>
+        <v>29</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
       </c>
       <c r="H13">
-        <v>2.0174914496235902E-2</v>
+        <v>-0.21238661524583999</v>
       </c>
       <c r="I13">
-        <v>2.6002469270549701E-2</v>
+        <v>8.33148496398292E-2</v>
       </c>
       <c r="J13">
-        <v>-0.167124848029718</v>
+        <v>37</v>
       </c>
       <c r="K13">
-        <v>0.106052252777996</v>
+        <v>4.0396851531247301E-2</v>
       </c>
       <c r="L13">
+        <v>1.0238430480646101E-2</v>
+      </c>
+      <c r="M13">
+        <v>37</v>
+      </c>
+      <c r="N13">
+        <v>-0.255745291172639</v>
+      </c>
+      <c r="O13">
+        <v>8.4711718031404107E-2</v>
+      </c>
+      <c r="P13">
+        <v>37</v>
+      </c>
+      <c r="Q13">
         <v>2.9618243955514302E-3</v>
       </c>
-      <c r="M13">
-        <v>1.26853519529272E-2</v>
-      </c>
-      <c r="N13">
-        <v>0.17244061975453701</v>
-      </c>
-      <c r="O13">
-        <v>0.188080405128907</v>
-      </c>
-      <c r="P13">
-        <v>0.80754005347837599</v>
-      </c>
-      <c r="Q13">
-        <v>0.19708766076263401</v>
-      </c>
       <c r="R13">
-        <v>2.0019326767086999E-2</v>
+        <v>1.2080764449867399E-3</v>
       </c>
       <c r="S13">
-        <v>7.0333415104616007E-2</v>
+        <v>37</v>
       </c>
       <c r="T13">
-        <v>43.399521045961997</v>
+        <v>0.14624902855527699</v>
       </c>
       <c r="U13">
-        <v>3353.3998849341601</v>
+        <v>5.6180178458718998E-2</v>
       </c>
       <c r="V13">
-        <v>55.046213385104203</v>
+        <v>37</v>
       </c>
       <c r="W13">
-        <v>3357.3490704769802</v>
+        <v>0.84360775766123397</v>
       </c>
       <c r="X13">
-        <v>1.5542655689337099</v>
+        <v>5.93335159567107E-2</v>
       </c>
       <c r="Y13">
-        <v>110.33140821566499</v>
+        <v>37</v>
       </c>
       <c r="Z13">
+        <v>1.0143213783488999E-2</v>
+      </c>
+      <c r="AA13">
+        <v>4.1522957141041502E-3</v>
+      </c>
+      <c r="AB13">
+        <v>37</v>
+      </c>
+      <c r="AC13">
+        <v>-24.418823878235099</v>
+      </c>
+      <c r="AD13">
+        <v>19.256307545200102</v>
+      </c>
+      <c r="AE13">
+        <v>37</v>
+      </c>
+      <c r="AF13">
+        <v>126.079753485691</v>
+      </c>
+      <c r="AG13">
+        <v>20.356547542859499</v>
+      </c>
+      <c r="AH13">
+        <v>37</v>
+      </c>
+      <c r="AI13">
+        <v>-1.6609296074559201</v>
+      </c>
+      <c r="AJ13">
+        <v>1.17460496654612</v>
+      </c>
+      <c r="AK13">
+        <v>37</v>
+      </c>
+      <c r="AL13">
         <v>41.6484340804396</v>
       </c>
-      <c r="AA13">
-        <v>34.505692344414001</v>
-      </c>
-      <c r="AB13" s="1">
-        <v>11.569009466788778</v>
-      </c>
-      <c r="AC13" s="1">
-        <v>9.5849145401150011</v>
+      <c r="AM13">
+        <v>6.6771547207243502</v>
+      </c>
+      <c r="AN13">
+        <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>0.83</v>
       </c>
@@ -1697,88 +2172,121 @@
         <v>1.72</v>
       </c>
       <c r="C14">
+        <v>27</v>
+      </c>
+      <c r="D14">
         <v>0.97</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>1.23</v>
       </c>
-      <c r="E14" t="s">
-        <v>41</v>
-      </c>
       <c r="F14">
-        <v>-6.6756087221855498E-2</v>
-      </c>
-      <c r="G14">
-        <v>9.96988660891161E-2</v>
+        <v>49</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
       </c>
       <c r="H14">
-        <v>-2.3933182364766201E-2</v>
+        <v>-8.0662201576616605E-2</v>
       </c>
       <c r="I14">
-        <v>2.7983557811554701E-2</v>
+        <v>9.4178662976265495E-2</v>
       </c>
       <c r="J14">
-        <v>-4.5153667373083697E-2</v>
+        <v>67</v>
       </c>
       <c r="K14">
-        <v>7.4799227071604801E-2</v>
+        <v>-2.3840330183583801E-2</v>
       </c>
       <c r="L14">
-        <v>2.33076251599445E-3</v>
+        <v>2.6431300409815402E-2</v>
       </c>
       <c r="M14">
-        <v>1.6879048010480301E-2</v>
+        <v>67</v>
       </c>
       <c r="N14">
-        <v>0.31087372579890499</v>
+        <v>-5.9020112860370497E-2</v>
       </c>
       <c r="O14">
-        <v>0.21778227861728999</v>
+        <v>6.6507718739825597E-2</v>
       </c>
       <c r="P14">
-        <v>0.60500950470334303</v>
+        <v>67</v>
       </c>
       <c r="Q14">
-        <v>0.23907534825076401</v>
+        <v>2.19824146733781E-3</v>
       </c>
       <c r="R14">
-        <v>8.4116769497750696E-2</v>
+        <v>7.1471309118025499E-3</v>
       </c>
       <c r="S14">
-        <v>0.18037180375892201</v>
+        <v>67</v>
       </c>
       <c r="T14">
-        <v>24.398560093943399</v>
+        <v>0.24047881571972199</v>
       </c>
       <c r="U14">
-        <v>1180.9848019696501</v>
+        <v>0.140633668016623</v>
       </c>
       <c r="V14">
-        <v>63.241050181021201</v>
+        <v>67</v>
       </c>
       <c r="W14">
-        <v>1204.00118655808</v>
+        <v>0.56732637570128197</v>
       </c>
       <c r="X14">
-        <v>12.360389725035301</v>
+        <v>0.21317961190484799</v>
       </c>
       <c r="Y14">
-        <v>385.49917806842899</v>
+        <v>67</v>
       </c>
       <c r="Z14">
+        <v>0.19219480857899399</v>
+      </c>
+      <c r="AA14">
+        <v>0.20355912946848301</v>
+      </c>
+      <c r="AB14">
+        <v>67</v>
+      </c>
+      <c r="AC14">
+        <v>22.507531009809298</v>
+      </c>
+      <c r="AD14">
+        <v>71.151965629105405</v>
+      </c>
+      <c r="AE14">
+        <v>67</v>
+      </c>
+      <c r="AF14">
+        <v>83.2912942393815</v>
+      </c>
+      <c r="AG14">
+        <v>127.688599164371</v>
+      </c>
+      <c r="AH14">
+        <v>67</v>
+      </c>
+      <c r="AI14">
+        <v>-5.7988252491909096</v>
+      </c>
+      <c r="AJ14">
+        <v>92.496053694128094</v>
+      </c>
+      <c r="AK14">
+        <v>67</v>
+      </c>
+      <c r="AL14">
         <v>22.906253818121598</v>
       </c>
-      <c r="AA14">
-        <v>23.4682342971136</v>
-      </c>
-      <c r="AB14" s="1">
-        <v>6.3628482828115551</v>
-      </c>
-      <c r="AC14" s="1">
-        <v>6.5189539714204443</v>
+      <c r="AM14">
+        <v>2.4052144707180698</v>
+      </c>
+      <c r="AN14">
+        <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>0.56000000000000005</v>
       </c>
@@ -1786,85 +2294,118 @@
         <v>0.23</v>
       </c>
       <c r="C15">
+        <v>26</v>
+      </c>
+      <c r="D15">
         <v>0.47</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>0.35</v>
       </c>
-      <c r="E15" t="s">
-        <v>42</v>
-      </c>
       <c r="F15">
-        <v>-2.4298724126721599E-2</v>
-      </c>
-      <c r="G15">
-        <v>4.5337368989009599E-2</v>
+        <v>35</v>
+      </c>
+      <c r="G15" t="s">
+        <v>47</v>
       </c>
       <c r="H15">
-        <v>-1.0740825107550599E-2</v>
+        <v>-2.5926160949728098E-2</v>
       </c>
       <c r="I15">
-        <v>3.4235849117527403E-2</v>
+        <v>1.55686967131841E-2</v>
       </c>
       <c r="J15">
-        <v>-1.09326850682025E-2</v>
+        <v>19</v>
       </c>
       <c r="K15">
-        <v>2.51356680248262E-2</v>
+        <v>-1.21289901711086E-2</v>
       </c>
       <c r="L15">
+        <v>3.8995160118713598E-3</v>
+      </c>
+      <c r="M15">
+        <v>19</v>
+      </c>
+      <c r="N15">
+        <v>-1.1171956827651101E-2</v>
+      </c>
+      <c r="O15">
+        <v>1.4690645554485E-2</v>
+      </c>
+      <c r="P15">
+        <v>19</v>
+      </c>
+      <c r="Q15">
         <v>-2.6252139509684298E-3</v>
       </c>
-      <c r="M15">
-        <v>1.37464301942587E-2</v>
-      </c>
-      <c r="N15">
-        <v>0.51008692757311003</v>
-      </c>
-      <c r="O15">
-        <v>0.254302071480424</v>
-      </c>
-      <c r="P15">
-        <v>0.43008515032488998</v>
-      </c>
-      <c r="Q15">
-        <v>0.25305760512975101</v>
-      </c>
       <c r="R15">
-        <v>5.9827922101998998E-2</v>
+        <v>1.5790954439611499E-3</v>
       </c>
       <c r="S15">
-        <v>0.15665450046999599</v>
+        <v>19</v>
       </c>
       <c r="T15">
-        <v>7460.6012075016797</v>
+        <v>0.43801441986488698</v>
       </c>
       <c r="U15">
-        <v>239110.72796037301</v>
+        <v>0.154725883397417</v>
       </c>
       <c r="V15">
-        <v>469.08142581576698</v>
+        <v>19</v>
       </c>
       <c r="W15">
-        <v>13653.141472389399</v>
+        <v>0.44514048125046002</v>
       </c>
       <c r="X15">
-        <v>-7829.6826333174504</v>
+        <v>0.18057957930792701</v>
       </c>
       <c r="Y15">
-        <v>252745.32276370699</v>
+        <v>19</v>
       </c>
       <c r="Z15">
+        <v>0.116845098884651</v>
+      </c>
+      <c r="AA15">
+        <v>9.6769551764440395E-2</v>
+      </c>
+      <c r="AB15">
+        <v>19</v>
+      </c>
+      <c r="AC15">
+        <v>407.70998661074901</v>
+      </c>
+      <c r="AD15">
+        <v>1508.5414935420599</v>
+      </c>
+      <c r="AE15">
+        <v>19</v>
+      </c>
+      <c r="AF15">
+        <v>-361.27463251628598</v>
+      </c>
+      <c r="AG15">
+        <v>1671.4083401604</v>
+      </c>
+      <c r="AH15">
+        <v>19</v>
+      </c>
+      <c r="AI15">
+        <v>53.564645905537098</v>
+      </c>
+      <c r="AJ15">
+        <v>163.420960922456</v>
+      </c>
+      <c r="AK15">
+        <v>19</v>
+      </c>
+      <c r="AL15">
         <v>31.850183711339</v>
       </c>
-      <c r="AA15">
-        <v>26.483267243455501</v>
-      </c>
-      <c r="AB15" s="1">
-        <v>8.8472732531497211</v>
-      </c>
-      <c r="AC15" s="1">
-        <v>7.356463123182083</v>
+      <c r="AM15">
+        <v>0.66247018352207898</v>
+      </c>
+      <c r="AN15">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
